--- a/data/trans_bre/P73-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P73-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 4,52</t>
+          <t>-13,1; 4,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 5,23</t>
+          <t>-11,0; 5,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 8,01</t>
+          <t>-19,84; 8,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 8,58</t>
+          <t>-15,73; 8,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 4,82</t>
+          <t>-7,24; 5,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 5,78</t>
+          <t>-6,3; 6,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 6,04</t>
+          <t>-6,64; 6,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 7,65</t>
+          <t>-10,51; 8,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 9,0</t>
+          <t>-9,15; 9,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 10,11</t>
+          <t>-10,12; 10,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 0,99</t>
+          <t>-13,81; 0,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 7,31</t>
+          <t>-8,24; 7,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,17; -2,04</t>
+          <t>-16,77; -2,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 1,51</t>
+          <t>-18,99; 1,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 12,7</t>
+          <t>-12,3; 13,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,06; -3,03</t>
+          <t>-23,74; -3,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,42; -0,06</t>
+          <t>-13,94; 0,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 7,83</t>
+          <t>-3,22; 7,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 2,62</t>
+          <t>-11,63; 2,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,4; -0,07</t>
+          <t>-19,51; 0,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 12,53</t>
+          <t>-4,7; 11,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 3,86</t>
+          <t>-16,1; 3,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 15,06</t>
+          <t>-4,43; 15,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 9,69</t>
+          <t>-8,45; 9,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 17,12</t>
+          <t>-1,72; 17,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 26,72</t>
+          <t>-6,92; 27,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 16,24</t>
+          <t>-12,12; 16,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 30,73</t>
+          <t>-2,25; 31,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 4,53</t>
+          <t>-11,54; 4,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 6,63</t>
+          <t>-9,75; 7,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 6,91</t>
+          <t>-9,72; 7,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 7,45</t>
+          <t>-16,55; 7,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 11,03</t>
+          <t>-14,03; 12,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 11,92</t>
+          <t>-14,41; 12,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 0,25</t>
+          <t>-10,17; 0,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 4,13</t>
+          <t>-7,0; 3,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,5; -3,26</t>
+          <t>-13,75; -2,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 0,57</t>
+          <t>-14,31; 1,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 6,63</t>
+          <t>-10,01; 6,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-23,29; -6,02</t>
+          <t>-22,64; -5,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 4,3</t>
+          <t>-5,02; 4,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 4,35</t>
+          <t>-5,34; 4,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 4,04</t>
+          <t>-5,42; 4,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 7,12</t>
+          <t>-7,57; 8,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 7,04</t>
+          <t>-7,99; 7,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 6,75</t>
+          <t>-8,36; 7,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,26</t>
+          <t>-5,04; -0,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,33</t>
+          <t>-2,34; 2,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,92</t>
+          <t>-5,46; -0,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -0,35</t>
+          <t>-7,55; -0,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,66</t>
+          <t>-3,51; 3,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,67; -1,49</t>
+          <t>-8,45; -1,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P73-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P73-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 4,82</t>
+          <t>-12,99; 4,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 5,03</t>
+          <t>-10,71; 5,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 8,6</t>
+          <t>-19,61; 7,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 8,07</t>
+          <t>-15,54; 9,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 5,08</t>
+          <t>-8,27; 4,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 6,0</t>
+          <t>-6,9; 5,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 6,06</t>
+          <t>-6,72; 6,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 8,16</t>
+          <t>-11,9; 6,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 9,43</t>
+          <t>-9,98; 8,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 10,14</t>
+          <t>-9,9; 10,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 0,78</t>
+          <t>-13,8; 0,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 7,84</t>
+          <t>-8,1; 7,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,77; -2,51</t>
+          <t>-16,72; -1,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 1,19</t>
+          <t>-19,02; 0,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 13,2</t>
+          <t>-12,46; 12,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,74; -3,94</t>
+          <t>-23,71; -3,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 0,37</t>
+          <t>-14,27; 0,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 7,12</t>
+          <t>-3,22; 7,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 2,37</t>
+          <t>-11,34; 2,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 0,94</t>
+          <t>-20,28; 0,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 11,42</t>
+          <t>-4,78; 12,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 3,7</t>
+          <t>-15,59; 3,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 15,37</t>
+          <t>-4,68; 14,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 9,43</t>
+          <t>-10,02; 9,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 17,06</t>
+          <t>-1,73; 16,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 27,15</t>
+          <t>-6,92; 25,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 16,06</t>
+          <t>-14,52; 15,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 31,31</t>
+          <t>-2,69; 29,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 4,58</t>
+          <t>-11,07; 4,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 7,48</t>
+          <t>-9,82; 6,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 7,37</t>
+          <t>-8,21; 8,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 7,37</t>
+          <t>-16,07; 6,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 12,31</t>
+          <t>-14,2; 10,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 12,67</t>
+          <t>-12,75; 13,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 0,75</t>
+          <t>-10,4; 0,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 3,79</t>
+          <t>-6,47; 4,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,75; -2,71</t>
+          <t>-14,08; -2,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 1,12</t>
+          <t>-14,76; 0,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 6,11</t>
+          <t>-9,62; 6,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-22,64; -5,73</t>
+          <t>-22,79; -4,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 4,98</t>
+          <t>-5,17; 4,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 4,66</t>
+          <t>-5,72; 4,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 4,21</t>
+          <t>-5,54; 4,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 8,24</t>
+          <t>-7,84; 7,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 7,65</t>
+          <t>-8,69; 7,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 7,16</t>
+          <t>-8,53; 8,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,04; -0,4</t>
+          <t>-5,18; -0,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,14</t>
+          <t>-2,78; 2,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,46; -0,78</t>
+          <t>-5,39; -0,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,55; -0,59</t>
+          <t>-7,77; -0,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,35</t>
+          <t>-4,17; 3,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -1,25</t>
+          <t>-8,3; -0,99</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P73-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P73-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,15 +539,13 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +567,17 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,27 +619,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
           <t>-4,47%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 4,25</t>
+          <t>-12,76; 4,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,32 +652,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 5,52</t>
+          <t>-11,37; 5,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-19,12; 8,01</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-19,61; 7,41</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-15,54; 9,02</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-16,57; 8,58</t>
         </is>
       </c>
     </row>
@@ -735,27 +699,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,09%</t>
+          <t>-0,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
           <t>-0,6%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 4,23</t>
+          <t>-7,47; 4,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 5,31</t>
+          <t>-6,56; 5,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 6,02</t>
+          <t>-6,47; 6,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,61; 7,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 6,71</t>
+          <t>-9,33; 9,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 8,33</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-9,9; 10,1</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-9,7; 10,11</t>
         </is>
       </c>
     </row>
@@ -835,27 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,41%</t>
+          <t>-0,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
           <t>-14,09%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 0,39</t>
+          <t>-13,9; 0,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 7,2</t>
+          <t>-7,97; 7,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,72; -1,95</t>
+          <t>-17,17; -2,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,88; 1,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 0,6</t>
+          <t>-12,37; 12,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 12,48</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-23,71; -3,19</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-24,06; -3,03</t>
         </is>
       </c>
     </row>
@@ -935,27 +859,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,51%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
           <t>-6,27%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 0,38</t>
+          <t>-13,42; -0,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 7,83</t>
+          <t>-3,13; 7,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 2,24</t>
+          <t>-11,83; 2,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,4; -0,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 0,65</t>
+          <t>-4,61; 12,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 12,29</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-15,59; 3,58</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-16,4; 3,86</t>
         </is>
       </c>
     </row>
@@ -1035,27 +939,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
           <t>12,36%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 14,33</t>
+          <t>-3,69; 15,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 9,03</t>
+          <t>-9,28; 9,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 16,43</t>
+          <t>-1,35; 17,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,75; 26,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 25,76</t>
+          <t>-13,56; 16,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 15,14</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 29,24</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-2,23; 30,73</t>
         </is>
       </c>
     </row>
@@ -1135,27 +1019,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>-1,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
           <t>-1,37%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 4,2</t>
+          <t>-11,54; 4,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 6,36</t>
+          <t>-9,71; 6,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 8,07</t>
+          <t>-9,27; 6,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,67; 7,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 6,83</t>
+          <t>-14,24; 11,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 10,26</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-12,75; 13,94</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-14,34; 11,92</t>
         </is>
       </c>
     </row>
@@ -1235,27 +1099,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,02%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,02%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,96%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
           <t>-14,27%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 0,55</t>
+          <t>-10,21; 0,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 4,46</t>
+          <t>-6,46; 4,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,08; -2,29</t>
+          <t>-14,5; -3,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,35; 0,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 0,86</t>
+          <t>-9,56; 6,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 6,92</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-22,79; -4,21</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-23,29; -6,02</t>
         </is>
       </c>
     </row>
@@ -1335,27 +1179,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,73%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
           <t>-1,24%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 4,33</t>
+          <t>-5,51; 4,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 4,43</t>
+          <t>-5,24; 4,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 4,65</t>
+          <t>-5,92; 4,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,48; 7,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 7,17</t>
+          <t>-7,87; 7,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 7,37</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>-8,53; 8,08</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-9,19; 6,75</t>
         </is>
       </c>
     </row>
@@ -1435,27 +1259,17 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,34%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,34%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
           <t>-4,93%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,18; -0,51</t>
+          <t>-5,14; -0,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,06</t>
+          <t>-2,45; 2,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,39; -0,63</t>
+          <t>-5,6; -0,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,63; -0,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -0,8</t>
+          <t>-3,69; 3,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,23</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-8,3; -0,99</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-8,67; -1,49</t>
         </is>
       </c>
     </row>
@@ -1516,16 +1320,16 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_bre/P73-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P73-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,4; 12,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; 20,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 7,83</t>
+          <t>-6,05; 8,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 12,53</t>
+          <t>-8,85; 13,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/P73-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P73-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 4,52</t>
+          <t>-11,75; 5,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 12,46</t>
+          <t>-4,38; 11,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 5,23</t>
+          <t>-11,24; 4,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 8,01</t>
+          <t>-18,29; 9,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 20,73</t>
+          <t>-6,14; 19,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 8,58</t>
+          <t>-16,11; 7,95</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 4,82</t>
+          <t>-7,26; 5,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 5,78</t>
+          <t>-6,53; 5,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 6,04</t>
+          <t>-6,43; 5,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 7,65</t>
+          <t>-10,6; 8,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 9,0</t>
+          <t>-9,07; 9,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 10,11</t>
+          <t>-9,63; 9,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 0,99</t>
+          <t>-14,21; 0,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 7,31</t>
+          <t>-7,86; 7,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,17; -2,04</t>
+          <t>-17,19; -2,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 1,51</t>
+          <t>-19,52; 0,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 12,7</t>
+          <t>-11,72; 12,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,06; -3,03</t>
+          <t>-23,94; -3,3</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,42; -0,06</t>
+          <t>-13,95; -0,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 8,45</t>
+          <t>-6,3; 7,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 2,62</t>
+          <t>-11,49; 2,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,4; -0,07</t>
+          <t>-20,25; -0,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 13,25</t>
+          <t>-9,11; 12,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 3,86</t>
+          <t>-15,93; 4,17</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 15,06</t>
+          <t>-4,2; 14,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 9,69</t>
+          <t>-8,47; 10,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 17,12</t>
+          <t>-1,43; 16,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 26,72</t>
+          <t>-6,15; 26,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 16,24</t>
+          <t>-12,35; 18,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 30,73</t>
+          <t>-1,64; 30,11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 4,53</t>
+          <t>-11,53; 4,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 6,63</t>
+          <t>-9,75; 7,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 6,91</t>
+          <t>-9,21; 8,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 7,45</t>
+          <t>-16,29; 7,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 11,03</t>
+          <t>-13,8; 12,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 11,92</t>
+          <t>-13,93; 14,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 0,25</t>
+          <t>-10,04; 0,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 4,13</t>
+          <t>-6,74; 4,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,5; -3,26</t>
+          <t>-13,93; -2,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 0,57</t>
+          <t>-14,51; 1,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 6,63</t>
+          <t>-9,9; 6,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-23,29; -6,02</t>
+          <t>-22,12; -5,13</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 4,3</t>
+          <t>-5,55; 5,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 4,35</t>
+          <t>-5,56; 4,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 4,04</t>
+          <t>-5,94; 4,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 7,12</t>
+          <t>-8,3; 8,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 7,04</t>
+          <t>-8,35; 7,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 6,75</t>
+          <t>-9,26; 6,75</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,26</t>
+          <t>-5,12; -0,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,33</t>
+          <t>-2,36; 2,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,92</t>
+          <t>-5,57; -0,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -0,35</t>
+          <t>-7,69; -0,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,66</t>
+          <t>-3,57; 3,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,67; -1,49</t>
+          <t>-8,6; -1,57</t>
         </is>
       </c>
     </row>
